--- a/CollectionSoftware2/Backup/CHANDRA STORE.xlsx
+++ b/CollectionSoftware2/Backup/CHANDRA STORE.xlsx
@@ -424,16 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2480</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2810</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
